--- a/files/separadas/repeat_p27.xlsx
+++ b/files/separadas/repeat_p27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="282">
   <si>
     <t>p27_nom</t>
   </si>
@@ -77,15 +77,6 @@
   </si>
   <si>
     <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>LabSUMAPAZ</t>
@@ -1279,13 +1270,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X71"/>
+  <dimension ref="A1:U71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1349,25 +1340,16 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -1376,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -1385,36 +1367,27 @@
         <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="R2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1423,7 +1396,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -1432,36 +1405,27 @@
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="R3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -1470,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L4">
         <v>6</v>
@@ -1479,36 +1443,27 @@
         <v>12</v>
       </c>
       <c r="N4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O4" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="R4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -1517,7 +1472,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L5">
         <v>7</v>
@@ -1526,36 +1481,27 @@
         <v>13</v>
       </c>
       <c r="N5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O5" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="R5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1564,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L6">
         <v>9</v>
@@ -1573,36 +1519,27 @@
         <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O6" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="R6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D7">
         <v>63</v>
@@ -1611,7 +1548,7 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L7">
         <v>11</v>
@@ -1620,36 +1557,27 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D8">
         <v>89</v>
@@ -1658,7 +1586,7 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L8">
         <v>11</v>
@@ -1667,36 +1595,27 @@
         <v>17</v>
       </c>
       <c r="N8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O8" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1705,7 +1624,7 @@
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L9">
         <v>12</v>
@@ -1714,36 +1633,27 @@
         <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O9" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="R9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D10">
         <v>60</v>
@@ -1752,7 +1662,7 @@
         <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L10">
         <v>13</v>
@@ -1761,36 +1671,27 @@
         <v>20</v>
       </c>
       <c r="N10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O10" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="R10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -1799,7 +1700,7 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L11">
         <v>14</v>
@@ -1808,36 +1709,27 @@
         <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O11" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="R11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D12">
         <v>15</v>
@@ -1846,7 +1738,7 @@
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L12">
         <v>16</v>
@@ -1855,36 +1747,27 @@
         <v>25</v>
       </c>
       <c r="N12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O12" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="R12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -1893,7 +1776,7 @@
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L13">
         <v>17</v>
@@ -1902,36 +1785,27 @@
         <v>26</v>
       </c>
       <c r="N13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O13" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="R13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -1940,7 +1814,7 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L14">
         <v>18</v>
@@ -1949,36 +1823,27 @@
         <v>27</v>
       </c>
       <c r="N14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O14" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="R14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -1987,7 +1852,7 @@
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L15">
         <v>19</v>
@@ -1996,36 +1861,27 @@
         <v>30</v>
       </c>
       <c r="N15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O15" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -2034,7 +1890,7 @@
         <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L16">
         <v>20</v>
@@ -2043,36 +1899,27 @@
         <v>33</v>
       </c>
       <c r="N16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O16" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="R16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D17">
         <v>19</v>
@@ -2081,7 +1928,7 @@
         <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L17">
         <v>20</v>
@@ -2090,36 +1937,27 @@
         <v>33</v>
       </c>
       <c r="N17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O17" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="R17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -2128,7 +1966,7 @@
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L18">
         <v>21</v>
@@ -2137,36 +1975,27 @@
         <v>34</v>
       </c>
       <c r="N18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O18" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="R18" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D19">
         <v>10</v>
@@ -2175,7 +2004,7 @@
         <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L19">
         <v>21</v>
@@ -2184,36 +2013,27 @@
         <v>34</v>
       </c>
       <c r="N19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O19" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="R19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D20">
         <v>7</v>
@@ -2222,7 +2042,7 @@
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L20">
         <v>22</v>
@@ -2231,36 +2051,27 @@
         <v>37</v>
       </c>
       <c r="N20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O20" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="R20" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D21">
         <v>25</v>
@@ -2269,7 +2080,7 @@
         <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L21">
         <v>23</v>
@@ -2278,36 +2089,27 @@
         <v>38</v>
       </c>
       <c r="N21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O21" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="R21" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D22">
         <v>50</v>
@@ -2316,7 +2118,7 @@
         <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L22">
         <v>23</v>
@@ -2325,36 +2127,27 @@
         <v>38</v>
       </c>
       <c r="N22" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O22" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="R22" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U22">
         <v>0</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -2363,7 +2156,7 @@
         <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L23">
         <v>24</v>
@@ -2372,36 +2165,27 @@
         <v>51</v>
       </c>
       <c r="N23" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O23" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R23" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D24">
         <v>15</v>
@@ -2410,7 +2194,7 @@
         <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L24">
         <v>24</v>
@@ -2419,36 +2203,27 @@
         <v>51</v>
       </c>
       <c r="N24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O24" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R24" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -2457,7 +2232,7 @@
         <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L25">
         <v>24</v>
@@ -2466,36 +2241,27 @@
         <v>51</v>
       </c>
       <c r="N25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O25" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R25" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -2504,7 +2270,7 @@
         <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L26">
         <v>26</v>
@@ -2513,36 +2279,27 @@
         <v>55</v>
       </c>
       <c r="N26" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O26" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="R26" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -2551,7 +2308,7 @@
         <v>26</v>
       </c>
       <c r="K27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L27">
         <v>26</v>
@@ -2560,36 +2317,27 @@
         <v>55</v>
       </c>
       <c r="N27" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O27" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="R27" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D28">
         <v>19</v>
@@ -2598,7 +2346,7 @@
         <v>27</v>
       </c>
       <c r="K28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L28">
         <v>27</v>
@@ -2607,36 +2355,27 @@
         <v>56</v>
       </c>
       <c r="N28" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O28" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="R28" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D29">
         <v>40</v>
@@ -2645,7 +2384,7 @@
         <v>28</v>
       </c>
       <c r="K29" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L29">
         <v>28</v>
@@ -2654,36 +2393,27 @@
         <v>57</v>
       </c>
       <c r="N29" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O29" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="R29" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -2692,7 +2422,7 @@
         <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L30">
         <v>28</v>
@@ -2701,36 +2431,27 @@
         <v>57</v>
       </c>
       <c r="N30" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O30" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="R30" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -2739,7 +2460,7 @@
         <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L31">
         <v>29</v>
@@ -2748,36 +2469,27 @@
         <v>58</v>
       </c>
       <c r="N31" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O31" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="R31" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D32">
         <v>8</v>
@@ -2786,7 +2498,7 @@
         <v>31</v>
       </c>
       <c r="K32" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L32">
         <v>30</v>
@@ -2795,36 +2507,27 @@
         <v>59</v>
       </c>
       <c r="N32" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O32" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R32" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D33">
         <v>14</v>
@@ -2833,7 +2536,7 @@
         <v>32</v>
       </c>
       <c r="K33" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L33">
         <v>30</v>
@@ -2842,36 +2545,27 @@
         <v>59</v>
       </c>
       <c r="N33" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O33" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R33" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D34">
         <v>7</v>
@@ -2880,7 +2574,7 @@
         <v>33</v>
       </c>
       <c r="K34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L34">
         <v>31</v>
@@ -2889,36 +2583,27 @@
         <v>60</v>
       </c>
       <c r="N34" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O34" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="R34" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U34">
         <v>0</v>
       </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D35">
         <v>15</v>
@@ -2927,7 +2612,7 @@
         <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L35">
         <v>32</v>
@@ -2936,36 +2621,27 @@
         <v>61</v>
       </c>
       <c r="N35" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O35" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="R35" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U35">
         <v>0</v>
       </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24">
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D36">
         <v>13</v>
@@ -2974,7 +2650,7 @@
         <v>35</v>
       </c>
       <c r="K36" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L36">
         <v>33</v>
@@ -2983,36 +2659,27 @@
         <v>63</v>
       </c>
       <c r="N36" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O36" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R36" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D37">
         <v>35</v>
@@ -3021,7 +2688,7 @@
         <v>36</v>
       </c>
       <c r="K37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L37">
         <v>34</v>
@@ -3030,36 +2697,27 @@
         <v>64</v>
       </c>
       <c r="N37" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O37" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="R37" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -3068,7 +2726,7 @@
         <v>37</v>
       </c>
       <c r="K38" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L38">
         <v>36</v>
@@ -3077,36 +2735,27 @@
         <v>77</v>
       </c>
       <c r="N38" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O38" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="R38" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -3115,7 +2764,7 @@
         <v>38</v>
       </c>
       <c r="K39" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L39">
         <v>37</v>
@@ -3124,36 +2773,27 @@
         <v>78</v>
       </c>
       <c r="N39" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O39" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="R39" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U39">
         <v>0</v>
       </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D40">
         <v>7</v>
@@ -3162,7 +2802,7 @@
         <v>39</v>
       </c>
       <c r="K40" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L40">
         <v>39</v>
@@ -3171,36 +2811,27 @@
         <v>81</v>
       </c>
       <c r="N40" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O40" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="R40" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U40">
         <v>0</v>
       </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D41">
         <v>20</v>
@@ -3209,7 +2840,7 @@
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L41">
         <v>41</v>
@@ -3218,36 +2849,27 @@
         <v>83</v>
       </c>
       <c r="N41" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O41" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="R41" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U41">
         <v>0</v>
       </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C42" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D42">
         <v>129</v>
@@ -3256,7 +2878,7 @@
         <v>41</v>
       </c>
       <c r="K42" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L42">
         <v>42</v>
@@ -3265,36 +2887,27 @@
         <v>84</v>
       </c>
       <c r="N42" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O42" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="R42" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U42">
         <v>0</v>
       </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D43">
         <v>96</v>
@@ -3303,7 +2916,7 @@
         <v>42</v>
       </c>
       <c r="K43" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L43">
         <v>42</v>
@@ -3312,36 +2925,27 @@
         <v>84</v>
       </c>
       <c r="N43" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O43" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="R43" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U43">
         <v>0</v>
       </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D44">
         <v>30</v>
@@ -3350,7 +2954,7 @@
         <v>43</v>
       </c>
       <c r="K44" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L44">
         <v>44</v>
@@ -3359,36 +2963,27 @@
         <v>87</v>
       </c>
       <c r="N44" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O44" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U44">
         <v>0</v>
       </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D45">
         <v>12</v>
@@ -3397,7 +2992,7 @@
         <v>44</v>
       </c>
       <c r="K45" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L45">
         <v>46</v>
@@ -3406,36 +3001,27 @@
         <v>90</v>
       </c>
       <c r="N45" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O45" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="R45" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U45">
         <v>0</v>
       </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C46" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D46">
         <v>7</v>
@@ -3444,7 +3030,7 @@
         <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L46">
         <v>49</v>
@@ -3453,36 +3039,27 @@
         <v>93</v>
       </c>
       <c r="N46" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O46" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R46" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U46">
         <v>0</v>
       </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24">
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D47">
         <v>10</v>
@@ -3491,7 +3068,7 @@
         <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L47">
         <v>50</v>
@@ -3500,36 +3077,27 @@
         <v>94</v>
       </c>
       <c r="N47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O47" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R47" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U47">
         <v>0</v>
       </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24">
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C48" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -3538,7 +3106,7 @@
         <v>47</v>
       </c>
       <c r="K48" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L48">
         <v>50</v>
@@ -3547,36 +3115,27 @@
         <v>94</v>
       </c>
       <c r="N48" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O48" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R48" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U48">
         <v>0</v>
       </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24">
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D49">
         <v>25</v>
@@ -3585,7 +3144,7 @@
         <v>48</v>
       </c>
       <c r="K49" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L49">
         <v>51</v>
@@ -3594,36 +3153,27 @@
         <v>95</v>
       </c>
       <c r="N49" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="O49" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R49" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U49">
         <v>0</v>
       </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24">
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -3632,7 +3182,7 @@
         <v>49</v>
       </c>
       <c r="K50" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L50">
         <v>54</v>
@@ -3641,36 +3191,27 @@
         <v>99</v>
       </c>
       <c r="N50" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O50" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="R50" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U50">
         <v>0</v>
       </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C51" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D51">
         <v>20</v>
@@ -3679,7 +3220,7 @@
         <v>50</v>
       </c>
       <c r="K51" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L51">
         <v>54</v>
@@ -3688,36 +3229,27 @@
         <v>99</v>
       </c>
       <c r="N51" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O51" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="R51" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U51">
         <v>0</v>
       </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24">
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D52">
         <v>6</v>
@@ -3726,7 +3258,7 @@
         <v>51</v>
       </c>
       <c r="K52" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L52">
         <v>55</v>
@@ -3735,36 +3267,27 @@
         <v>100</v>
       </c>
       <c r="N52" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O52" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="R52" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U52">
         <v>0</v>
       </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24">
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D53">
         <v>5</v>
@@ -3773,7 +3296,7 @@
         <v>52</v>
       </c>
       <c r="K53" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L53">
         <v>55</v>
@@ -3782,36 +3305,27 @@
         <v>100</v>
       </c>
       <c r="N53" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O53" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="R53" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U53">
         <v>0</v>
       </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24">
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C54" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -3820,7 +3334,7 @@
         <v>53</v>
       </c>
       <c r="K54" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L54">
         <v>56</v>
@@ -3829,36 +3343,27 @@
         <v>101</v>
       </c>
       <c r="N54" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O54" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="R54" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U54">
         <v>0</v>
       </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24">
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -3867,7 +3372,7 @@
         <v>54</v>
       </c>
       <c r="K55" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L55">
         <v>58</v>
@@ -3876,36 +3381,27 @@
         <v>103</v>
       </c>
       <c r="N55" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O55" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="R55" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U55">
         <v>0</v>
       </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24">
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D56">
         <v>10</v>
@@ -3914,7 +3410,7 @@
         <v>55</v>
       </c>
       <c r="K56" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L56">
         <v>59</v>
@@ -3923,36 +3419,27 @@
         <v>104</v>
       </c>
       <c r="N56" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O56" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="R56" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U56">
         <v>0</v>
       </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24">
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D57">
         <v>100</v>
@@ -3961,7 +3448,7 @@
         <v>56</v>
       </c>
       <c r="K57" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L57">
         <v>60</v>
@@ -3970,36 +3457,27 @@
         <v>105</v>
       </c>
       <c r="N57" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O57" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="R57" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U57">
         <v>0</v>
       </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24">
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -4008,7 +3486,7 @@
         <v>57</v>
       </c>
       <c r="K58" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L58">
         <v>61</v>
@@ -4017,36 +3495,27 @@
         <v>106</v>
       </c>
       <c r="N58" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O58" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="R58" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U58">
         <v>0</v>
       </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24">
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C59" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D59">
         <v>15</v>
@@ -4055,7 +3524,7 @@
         <v>58</v>
       </c>
       <c r="K59" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L59">
         <v>65</v>
@@ -4064,36 +3533,27 @@
         <v>111</v>
       </c>
       <c r="N59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O59" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="R59" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U59">
         <v>0</v>
       </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24">
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D60">
         <v>7</v>
@@ -4102,7 +3562,7 @@
         <v>59</v>
       </c>
       <c r="K60" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L60">
         <v>66</v>
@@ -4111,36 +3571,27 @@
         <v>113</v>
       </c>
       <c r="N60" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O60" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="R60" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U60">
         <v>0</v>
       </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24">
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C61" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D61">
         <v>18</v>
@@ -4149,7 +3600,7 @@
         <v>60</v>
       </c>
       <c r="K61" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L61">
         <v>68</v>
@@ -4158,36 +3609,27 @@
         <v>115</v>
       </c>
       <c r="N61" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O61" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="R61" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="U61">
         <v>0</v>
       </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24">
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C62" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D62">
         <v>5</v>
@@ -4196,7 +3638,7 @@
         <v>61</v>
       </c>
       <c r="K62" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L62">
         <v>68</v>
@@ -4205,36 +3647,27 @@
         <v>115</v>
       </c>
       <c r="N62" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O62" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="R62" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="U62">
         <v>0</v>
       </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24">
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C63" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D63">
         <v>21</v>
@@ -4243,7 +3676,7 @@
         <v>62</v>
       </c>
       <c r="K63" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L63">
         <v>68</v>
@@ -4252,36 +3685,27 @@
         <v>115</v>
       </c>
       <c r="N63" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O63" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="R63" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="U63">
         <v>0</v>
       </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24">
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C64" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D64">
         <v>6</v>
@@ -4290,7 +3714,7 @@
         <v>63</v>
       </c>
       <c r="K64" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L64">
         <v>70</v>
@@ -4299,36 +3723,27 @@
         <v>118</v>
       </c>
       <c r="N64" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O64" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="R64" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U64">
         <v>0</v>
       </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24">
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C65" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D65">
         <v>14</v>
@@ -4337,7 +3752,7 @@
         <v>64</v>
       </c>
       <c r="K65" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L65">
         <v>71</v>
@@ -4346,36 +3761,27 @@
         <v>119</v>
       </c>
       <c r="N65" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O65" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="R65" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U65">
         <v>0</v>
       </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24">
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C66" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D66">
         <v>17</v>
@@ -4384,7 +3790,7 @@
         <v>65</v>
       </c>
       <c r="K66" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L66">
         <v>71</v>
@@ -4393,36 +3799,27 @@
         <v>119</v>
       </c>
       <c r="N66" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O66" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="R66" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U66">
         <v>0</v>
       </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C67" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D67">
         <v>22</v>
@@ -4431,7 +3828,7 @@
         <v>66</v>
       </c>
       <c r="K67" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L67">
         <v>71</v>
@@ -4440,36 +3837,27 @@
         <v>119</v>
       </c>
       <c r="N67" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O67" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="R67" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U67">
         <v>0</v>
       </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="X67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24">
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D68">
         <v>120</v>
@@ -4478,7 +3866,7 @@
         <v>67</v>
       </c>
       <c r="K68" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L68">
         <v>71</v>
@@ -4487,36 +3875,27 @@
         <v>119</v>
       </c>
       <c r="N68" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O68" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="R68" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U68">
         <v>0</v>
       </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24">
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C69" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D69">
         <v>75</v>
@@ -4525,7 +3904,7 @@
         <v>68</v>
       </c>
       <c r="K69" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L69">
         <v>71</v>
@@ -4534,36 +3913,27 @@
         <v>119</v>
       </c>
       <c r="N69" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O69" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="R69" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U69">
         <v>0</v>
       </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-      <c r="X69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24">
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -4572,7 +3942,7 @@
         <v>69</v>
       </c>
       <c r="K70" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L70">
         <v>71</v>
@@ -4581,36 +3951,27 @@
         <v>119</v>
       </c>
       <c r="N70" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O70" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="R70" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U70">
         <v>0</v>
       </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24">
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C71" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -4619,7 +3980,7 @@
         <v>70</v>
       </c>
       <c r="K71" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L71">
         <v>71</v>
@@ -4628,24 +3989,15 @@
         <v>119</v>
       </c>
       <c r="N71" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O71" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="R71" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="X71">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p27.xlsx
+++ b/files/separadas/repeat_p27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="283">
   <si>
     <t>p27_nom</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>c1</t>
+  </si>
+  <si>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>LabSUMAPAZ</t>
@@ -1270,13 +1273,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U71"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1340,16 +1343,19 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -1358,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -1367,27 +1373,30 @@
         <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="R2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1396,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -1405,27 +1414,30 @@
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="R3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -1434,7 +1446,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L4">
         <v>6</v>
@@ -1443,27 +1455,30 @@
         <v>12</v>
       </c>
       <c r="N4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O4" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="R4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -1472,7 +1487,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L5">
         <v>7</v>
@@ -1481,27 +1496,30 @@
         <v>13</v>
       </c>
       <c r="N5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O5" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="R5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1510,7 +1528,7 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L6">
         <v>9</v>
@@ -1519,27 +1537,30 @@
         <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O6" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="R6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D7">
         <v>63</v>
@@ -1548,7 +1569,7 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L7">
         <v>11</v>
@@ -1557,27 +1578,30 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D8">
         <v>89</v>
@@ -1586,7 +1610,7 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L8">
         <v>11</v>
@@ -1595,27 +1619,30 @@
         <v>17</v>
       </c>
       <c r="N8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O8" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1624,7 +1651,7 @@
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L9">
         <v>12</v>
@@ -1633,27 +1660,30 @@
         <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O9" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="R9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D10">
         <v>60</v>
@@ -1662,7 +1692,7 @@
         <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L10">
         <v>13</v>
@@ -1671,27 +1701,30 @@
         <v>20</v>
       </c>
       <c r="N10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O10" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="R10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -1700,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L11">
         <v>14</v>
@@ -1709,27 +1742,30 @@
         <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O11" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="R11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D12">
         <v>15</v>
@@ -1738,7 +1774,7 @@
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L12">
         <v>16</v>
@@ -1747,27 +1783,30 @@
         <v>25</v>
       </c>
       <c r="N12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O12" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="R12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -1776,7 +1815,7 @@
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L13">
         <v>17</v>
@@ -1785,27 +1824,30 @@
         <v>26</v>
       </c>
       <c r="N13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O13" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="R13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -1814,7 +1856,7 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L14">
         <v>18</v>
@@ -1823,27 +1865,30 @@
         <v>27</v>
       </c>
       <c r="N14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O14" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="R14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -1852,7 +1897,7 @@
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L15">
         <v>19</v>
@@ -1861,27 +1906,30 @@
         <v>30</v>
       </c>
       <c r="N15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O15" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1890,7 +1938,7 @@
         <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L16">
         <v>20</v>
@@ -1899,27 +1947,30 @@
         <v>33</v>
       </c>
       <c r="N16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O16" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="R16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D17">
         <v>19</v>
@@ -1928,7 +1979,7 @@
         <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L17">
         <v>20</v>
@@ -1937,27 +1988,30 @@
         <v>33</v>
       </c>
       <c r="N17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O17" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="R17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -1966,7 +2020,7 @@
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L18">
         <v>21</v>
@@ -1975,27 +2029,30 @@
         <v>34</v>
       </c>
       <c r="N18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O18" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="R18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D19">
         <v>10</v>
@@ -2004,7 +2061,7 @@
         <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L19">
         <v>21</v>
@@ -2013,27 +2070,30 @@
         <v>34</v>
       </c>
       <c r="N19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O19" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="R19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D20">
         <v>7</v>
@@ -2042,7 +2102,7 @@
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L20">
         <v>22</v>
@@ -2051,27 +2111,30 @@
         <v>37</v>
       </c>
       <c r="N20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O20" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="R20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D21">
         <v>25</v>
@@ -2080,7 +2143,7 @@
         <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L21">
         <v>23</v>
@@ -2089,27 +2152,30 @@
         <v>38</v>
       </c>
       <c r="N21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O21" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="R21" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D22">
         <v>50</v>
@@ -2118,7 +2184,7 @@
         <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L22">
         <v>23</v>
@@ -2127,27 +2193,30 @@
         <v>38</v>
       </c>
       <c r="N22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O22" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="R22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -2156,7 +2225,7 @@
         <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L23">
         <v>24</v>
@@ -2165,27 +2234,30 @@
         <v>51</v>
       </c>
       <c r="N23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O23" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R23" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D24">
         <v>15</v>
@@ -2194,7 +2266,7 @@
         <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L24">
         <v>24</v>
@@ -2203,27 +2275,30 @@
         <v>51</v>
       </c>
       <c r="N24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O24" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -2232,7 +2307,7 @@
         <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L25">
         <v>24</v>
@@ -2241,27 +2316,30 @@
         <v>51</v>
       </c>
       <c r="N25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O25" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R25" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -2270,7 +2348,7 @@
         <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L26">
         <v>26</v>
@@ -2279,27 +2357,30 @@
         <v>55</v>
       </c>
       <c r="N26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O26" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="R26" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -2308,7 +2389,7 @@
         <v>26</v>
       </c>
       <c r="K27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L27">
         <v>26</v>
@@ -2317,27 +2398,30 @@
         <v>55</v>
       </c>
       <c r="N27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O27" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="R27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D28">
         <v>19</v>
@@ -2346,7 +2430,7 @@
         <v>27</v>
       </c>
       <c r="K28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L28">
         <v>27</v>
@@ -2355,27 +2439,30 @@
         <v>56</v>
       </c>
       <c r="N28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O28" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="R28" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D29">
         <v>40</v>
@@ -2384,7 +2471,7 @@
         <v>28</v>
       </c>
       <c r="K29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L29">
         <v>28</v>
@@ -2393,27 +2480,30 @@
         <v>57</v>
       </c>
       <c r="N29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O29" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="R29" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -2422,7 +2512,7 @@
         <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L30">
         <v>28</v>
@@ -2431,27 +2521,30 @@
         <v>57</v>
       </c>
       <c r="N30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O30" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="R30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -2460,7 +2553,7 @@
         <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L31">
         <v>29</v>
@@ -2469,27 +2562,30 @@
         <v>58</v>
       </c>
       <c r="N31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O31" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="R31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D32">
         <v>8</v>
@@ -2498,7 +2594,7 @@
         <v>31</v>
       </c>
       <c r="K32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L32">
         <v>30</v>
@@ -2507,27 +2603,30 @@
         <v>59</v>
       </c>
       <c r="N32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O32" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R32" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D33">
         <v>14</v>
@@ -2536,7 +2635,7 @@
         <v>32</v>
       </c>
       <c r="K33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L33">
         <v>30</v>
@@ -2545,27 +2644,30 @@
         <v>59</v>
       </c>
       <c r="N33" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O33" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R33" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D34">
         <v>7</v>
@@ -2574,7 +2676,7 @@
         <v>33</v>
       </c>
       <c r="K34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L34">
         <v>31</v>
@@ -2583,27 +2685,30 @@
         <v>60</v>
       </c>
       <c r="N34" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O34" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="R34" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D35">
         <v>15</v>
@@ -2612,7 +2717,7 @@
         <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L35">
         <v>32</v>
@@ -2621,27 +2726,30 @@
         <v>61</v>
       </c>
       <c r="N35" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O35" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="R35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D36">
         <v>13</v>
@@ -2650,7 +2758,7 @@
         <v>35</v>
       </c>
       <c r="K36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L36">
         <v>33</v>
@@ -2659,27 +2767,30 @@
         <v>63</v>
       </c>
       <c r="N36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O36" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R36" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D37">
         <v>35</v>
@@ -2688,7 +2799,7 @@
         <v>36</v>
       </c>
       <c r="K37" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L37">
         <v>34</v>
@@ -2697,27 +2808,30 @@
         <v>64</v>
       </c>
       <c r="N37" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O37" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="R37" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -2726,7 +2840,7 @@
         <v>37</v>
       </c>
       <c r="K38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L38">
         <v>36</v>
@@ -2735,27 +2849,30 @@
         <v>77</v>
       </c>
       <c r="N38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O38" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="R38" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -2764,7 +2881,7 @@
         <v>38</v>
       </c>
       <c r="K39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L39">
         <v>37</v>
@@ -2773,27 +2890,30 @@
         <v>78</v>
       </c>
       <c r="N39" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O39" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="R39" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D40">
         <v>7</v>
@@ -2802,7 +2922,7 @@
         <v>39</v>
       </c>
       <c r="K40" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L40">
         <v>39</v>
@@ -2811,27 +2931,30 @@
         <v>81</v>
       </c>
       <c r="N40" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O40" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="R40" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:21">
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D41">
         <v>20</v>
@@ -2840,7 +2963,7 @@
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L41">
         <v>41</v>
@@ -2849,27 +2972,30 @@
         <v>83</v>
       </c>
       <c r="N41" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O41" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="R41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D42">
         <v>129</v>
@@ -2878,7 +3004,7 @@
         <v>41</v>
       </c>
       <c r="K42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L42">
         <v>42</v>
@@ -2887,27 +3013,30 @@
         <v>84</v>
       </c>
       <c r="N42" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O42" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="R42" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:21">
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D43">
         <v>96</v>
@@ -2916,7 +3045,7 @@
         <v>42</v>
       </c>
       <c r="K43" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L43">
         <v>42</v>
@@ -2925,27 +3054,30 @@
         <v>84</v>
       </c>
       <c r="N43" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O43" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="R43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:21">
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D44">
         <v>30</v>
@@ -2954,7 +3086,7 @@
         <v>43</v>
       </c>
       <c r="K44" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L44">
         <v>44</v>
@@ -2963,27 +3095,30 @@
         <v>87</v>
       </c>
       <c r="N44" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O44" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R44" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:21">
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D45">
         <v>12</v>
@@ -2992,7 +3127,7 @@
         <v>44</v>
       </c>
       <c r="K45" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L45">
         <v>46</v>
@@ -3001,27 +3136,30 @@
         <v>90</v>
       </c>
       <c r="N45" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O45" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="R45" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:21">
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D46">
         <v>7</v>
@@ -3030,7 +3168,7 @@
         <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L46">
         <v>49</v>
@@ -3039,27 +3177,30 @@
         <v>93</v>
       </c>
       <c r="N46" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O46" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R46" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:21">
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C47" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D47">
         <v>10</v>
@@ -3068,7 +3209,7 @@
         <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L47">
         <v>50</v>
@@ -3077,27 +3218,30 @@
         <v>94</v>
       </c>
       <c r="N47" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O47" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R47" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:21">
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -3106,7 +3250,7 @@
         <v>47</v>
       </c>
       <c r="K48" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L48">
         <v>50</v>
@@ -3115,27 +3259,30 @@
         <v>94</v>
       </c>
       <c r="N48" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O48" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R48" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:21">
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D49">
         <v>25</v>
@@ -3144,7 +3291,7 @@
         <v>48</v>
       </c>
       <c r="K49" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L49">
         <v>51</v>
@@ -3153,27 +3300,30 @@
         <v>95</v>
       </c>
       <c r="N49" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O49" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R49" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:21">
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C50" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -3182,7 +3332,7 @@
         <v>49</v>
       </c>
       <c r="K50" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L50">
         <v>54</v>
@@ -3191,27 +3341,30 @@
         <v>99</v>
       </c>
       <c r="N50" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O50" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="R50" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:21">
+      <c r="V50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D51">
         <v>20</v>
@@ -3220,7 +3373,7 @@
         <v>50</v>
       </c>
       <c r="K51" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L51">
         <v>54</v>
@@ -3229,27 +3382,30 @@
         <v>99</v>
       </c>
       <c r="N51" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O51" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="R51" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:21">
+      <c r="V51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C52" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D52">
         <v>6</v>
@@ -3258,7 +3414,7 @@
         <v>51</v>
       </c>
       <c r="K52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L52">
         <v>55</v>
@@ -3267,27 +3423,30 @@
         <v>100</v>
       </c>
       <c r="N52" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O52" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="R52" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:21">
+      <c r="V52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D53">
         <v>5</v>
@@ -3296,7 +3455,7 @@
         <v>52</v>
       </c>
       <c r="K53" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L53">
         <v>55</v>
@@ -3305,27 +3464,30 @@
         <v>100</v>
       </c>
       <c r="N53" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O53" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="R53" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:21">
+      <c r="V53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -3334,7 +3496,7 @@
         <v>53</v>
       </c>
       <c r="K54" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L54">
         <v>56</v>
@@ -3343,27 +3505,30 @@
         <v>101</v>
       </c>
       <c r="N54" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O54" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="R54" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:21">
+      <c r="V54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C55" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -3372,7 +3537,7 @@
         <v>54</v>
       </c>
       <c r="K55" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L55">
         <v>58</v>
@@ -3381,27 +3546,30 @@
         <v>103</v>
       </c>
       <c r="N55" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O55" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="R55" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:21">
+      <c r="V55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D56">
         <v>10</v>
@@ -3410,7 +3578,7 @@
         <v>55</v>
       </c>
       <c r="K56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L56">
         <v>59</v>
@@ -3419,27 +3587,30 @@
         <v>104</v>
       </c>
       <c r="N56" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O56" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="R56" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:21">
+      <c r="V56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D57">
         <v>100</v>
@@ -3448,7 +3619,7 @@
         <v>56</v>
       </c>
       <c r="K57" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L57">
         <v>60</v>
@@ -3457,27 +3628,30 @@
         <v>105</v>
       </c>
       <c r="N57" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O57" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="R57" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:21">
+      <c r="V57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -3486,7 +3660,7 @@
         <v>57</v>
       </c>
       <c r="K58" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L58">
         <v>61</v>
@@ -3495,27 +3669,30 @@
         <v>106</v>
       </c>
       <c r="N58" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O58" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="R58" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:21">
+      <c r="V58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D59">
         <v>15</v>
@@ -3524,7 +3701,7 @@
         <v>58</v>
       </c>
       <c r="K59" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L59">
         <v>65</v>
@@ -3533,27 +3710,30 @@
         <v>111</v>
       </c>
       <c r="N59" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O59" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="R59" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:21">
+      <c r="V59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D60">
         <v>7</v>
@@ -3562,7 +3742,7 @@
         <v>59</v>
       </c>
       <c r="K60" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L60">
         <v>66</v>
@@ -3571,27 +3751,30 @@
         <v>113</v>
       </c>
       <c r="N60" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O60" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="R60" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:21">
+      <c r="V60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D61">
         <v>18</v>
@@ -3600,7 +3783,7 @@
         <v>60</v>
       </c>
       <c r="K61" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L61">
         <v>68</v>
@@ -3609,27 +3792,30 @@
         <v>115</v>
       </c>
       <c r="N61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O61" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="R61" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:21">
+      <c r="V61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D62">
         <v>5</v>
@@ -3638,7 +3824,7 @@
         <v>61</v>
       </c>
       <c r="K62" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L62">
         <v>68</v>
@@ -3647,27 +3833,30 @@
         <v>115</v>
       </c>
       <c r="N62" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O62" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="R62" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:21">
+      <c r="V62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C63" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D63">
         <v>21</v>
@@ -3676,7 +3865,7 @@
         <v>62</v>
       </c>
       <c r="K63" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L63">
         <v>68</v>
@@ -3685,27 +3874,30 @@
         <v>115</v>
       </c>
       <c r="N63" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O63" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="R63" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:21">
+      <c r="V63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C64" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D64">
         <v>6</v>
@@ -3714,7 +3906,7 @@
         <v>63</v>
       </c>
       <c r="K64" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L64">
         <v>70</v>
@@ -3723,27 +3915,30 @@
         <v>118</v>
       </c>
       <c r="N64" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O64" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="R64" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:21">
+      <c r="V64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C65" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D65">
         <v>14</v>
@@ -3752,7 +3947,7 @@
         <v>64</v>
       </c>
       <c r="K65" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L65">
         <v>71</v>
@@ -3761,27 +3956,30 @@
         <v>119</v>
       </c>
       <c r="N65" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O65" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="R65" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:21">
+      <c r="V65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C66" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D66">
         <v>17</v>
@@ -3790,7 +3988,7 @@
         <v>65</v>
       </c>
       <c r="K66" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L66">
         <v>71</v>
@@ -3799,27 +3997,30 @@
         <v>119</v>
       </c>
       <c r="N66" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O66" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="R66" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:21">
+      <c r="V66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C67" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D67">
         <v>22</v>
@@ -3828,7 +4029,7 @@
         <v>66</v>
       </c>
       <c r="K67" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L67">
         <v>71</v>
@@ -3837,27 +4038,30 @@
         <v>119</v>
       </c>
       <c r="N67" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O67" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="R67" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:21">
+      <c r="V67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C68" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D68">
         <v>120</v>
@@ -3866,7 +4070,7 @@
         <v>67</v>
       </c>
       <c r="K68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L68">
         <v>71</v>
@@ -3875,27 +4079,30 @@
         <v>119</v>
       </c>
       <c r="N68" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O68" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="R68" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:21">
+      <c r="V68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D69">
         <v>75</v>
@@ -3904,7 +4111,7 @@
         <v>68</v>
       </c>
       <c r="K69" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L69">
         <v>71</v>
@@ -3913,27 +4120,30 @@
         <v>119</v>
       </c>
       <c r="N69" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O69" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="R69" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:21">
+      <c r="V69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C70" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -3942,7 +4152,7 @@
         <v>69</v>
       </c>
       <c r="K70" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L70">
         <v>71</v>
@@ -3951,27 +4161,30 @@
         <v>119</v>
       </c>
       <c r="N70" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O70" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="R70" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:21">
+      <c r="V70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C71" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -3980,7 +4193,7 @@
         <v>70</v>
       </c>
       <c r="K71" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L71">
         <v>71</v>
@@ -3989,15 +4202,18 @@
         <v>119</v>
       </c>
       <c r="N71" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O71" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="R71" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p27.xlsx
+++ b/files/separadas/repeat_p27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="284">
   <si>
     <t>p27_nom</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>c1</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1273,13 +1276,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1346,16 +1349,19 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -1364,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -1373,13 +1379,13 @@
         <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="R2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1387,16 +1393,19 @@
       <c r="V2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1405,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -1414,13 +1423,13 @@
         <v>7</v>
       </c>
       <c r="N3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="R3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1428,16 +1437,19 @@
       <c r="V3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -1446,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L4">
         <v>6</v>
@@ -1455,13 +1467,13 @@
         <v>12</v>
       </c>
       <c r="N4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O4" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="R4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1469,16 +1481,19 @@
       <c r="V4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -1487,7 +1502,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L5">
         <v>7</v>
@@ -1496,13 +1511,13 @@
         <v>13</v>
       </c>
       <c r="N5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O5" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="R5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1510,16 +1525,19 @@
       <c r="V5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1528,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L6">
         <v>9</v>
@@ -1537,13 +1555,13 @@
         <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O6" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="R6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1551,16 +1569,19 @@
       <c r="V6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D7">
         <v>63</v>
@@ -1569,7 +1590,7 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L7">
         <v>11</v>
@@ -1578,13 +1599,13 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1592,16 +1613,19 @@
       <c r="V7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D8">
         <v>89</v>
@@ -1610,7 +1634,7 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L8">
         <v>11</v>
@@ -1619,13 +1643,13 @@
         <v>17</v>
       </c>
       <c r="N8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O8" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="R8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1633,16 +1657,19 @@
       <c r="V8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1651,7 +1678,7 @@
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L9">
         <v>12</v>
@@ -1660,13 +1687,13 @@
         <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O9" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="R9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1674,16 +1701,19 @@
       <c r="V9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D10">
         <v>60</v>
@@ -1692,7 +1722,7 @@
         <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L10">
         <v>13</v>
@@ -1701,13 +1731,13 @@
         <v>20</v>
       </c>
       <c r="N10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O10" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="R10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1715,16 +1745,19 @@
       <c r="V10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -1733,7 +1766,7 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L11">
         <v>14</v>
@@ -1742,13 +1775,13 @@
         <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O11" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="R11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1756,16 +1789,19 @@
       <c r="V11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D12">
         <v>15</v>
@@ -1774,7 +1810,7 @@
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L12">
         <v>16</v>
@@ -1783,13 +1819,13 @@
         <v>25</v>
       </c>
       <c r="N12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O12" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="R12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -1797,16 +1833,19 @@
       <c r="V12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -1815,7 +1854,7 @@
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L13">
         <v>17</v>
@@ -1824,13 +1863,13 @@
         <v>26</v>
       </c>
       <c r="N13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O13" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="R13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -1838,16 +1877,19 @@
       <c r="V13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -1856,7 +1898,7 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L14">
         <v>18</v>
@@ -1865,13 +1907,13 @@
         <v>27</v>
       </c>
       <c r="N14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O14" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="R14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1879,16 +1921,19 @@
       <c r="V14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -1897,7 +1942,7 @@
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L15">
         <v>19</v>
@@ -1906,13 +1951,13 @@
         <v>30</v>
       </c>
       <c r="N15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O15" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="R15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -1920,16 +1965,19 @@
       <c r="V15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1938,7 +1986,7 @@
         <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L16">
         <v>20</v>
@@ -1947,13 +1995,13 @@
         <v>33</v>
       </c>
       <c r="N16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O16" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="R16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -1961,16 +2009,19 @@
       <c r="V16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D17">
         <v>19</v>
@@ -1979,7 +2030,7 @@
         <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L17">
         <v>20</v>
@@ -1988,13 +2039,13 @@
         <v>33</v>
       </c>
       <c r="N17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O17" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="R17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -2002,16 +2053,19 @@
       <c r="V17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -2020,7 +2074,7 @@
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L18">
         <v>21</v>
@@ -2029,13 +2083,13 @@
         <v>34</v>
       </c>
       <c r="N18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O18" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="R18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2043,16 +2097,19 @@
       <c r="V18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D19">
         <v>10</v>
@@ -2061,7 +2118,7 @@
         <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L19">
         <v>21</v>
@@ -2070,13 +2127,13 @@
         <v>34</v>
       </c>
       <c r="N19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O19" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="R19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2084,16 +2141,19 @@
       <c r="V19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D20">
         <v>7</v>
@@ -2102,7 +2162,7 @@
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L20">
         <v>22</v>
@@ -2111,13 +2171,13 @@
         <v>37</v>
       </c>
       <c r="N20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O20" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="R20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -2125,16 +2185,19 @@
       <c r="V20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D21">
         <v>25</v>
@@ -2143,7 +2206,7 @@
         <v>20</v>
       </c>
       <c r="K21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L21">
         <v>23</v>
@@ -2152,13 +2215,13 @@
         <v>38</v>
       </c>
       <c r="N21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O21" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="R21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2166,16 +2229,19 @@
       <c r="V21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D22">
         <v>50</v>
@@ -2184,7 +2250,7 @@
         <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L22">
         <v>23</v>
@@ -2193,13 +2259,13 @@
         <v>38</v>
       </c>
       <c r="N22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O22" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="R22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -2207,16 +2273,19 @@
       <c r="V22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -2225,7 +2294,7 @@
         <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L23">
         <v>24</v>
@@ -2234,13 +2303,13 @@
         <v>51</v>
       </c>
       <c r="N23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O23" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R23" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -2248,16 +2317,19 @@
       <c r="V23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D24">
         <v>15</v>
@@ -2266,7 +2338,7 @@
         <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L24">
         <v>24</v>
@@ -2275,13 +2347,13 @@
         <v>51</v>
       </c>
       <c r="N24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O24" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -2289,16 +2361,19 @@
       <c r="V24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -2307,7 +2382,7 @@
         <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L25">
         <v>24</v>
@@ -2316,13 +2391,13 @@
         <v>51</v>
       </c>
       <c r="N25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O25" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="R25" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -2330,16 +2405,19 @@
       <c r="V25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -2348,7 +2426,7 @@
         <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L26">
         <v>26</v>
@@ -2357,13 +2435,13 @@
         <v>55</v>
       </c>
       <c r="N26" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O26" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="R26" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -2371,16 +2449,19 @@
       <c r="V26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -2389,7 +2470,7 @@
         <v>26</v>
       </c>
       <c r="K27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L27">
         <v>26</v>
@@ -2398,13 +2479,13 @@
         <v>55</v>
       </c>
       <c r="N27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O27" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="R27" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -2412,16 +2493,19 @@
       <c r="V27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D28">
         <v>19</v>
@@ -2430,7 +2514,7 @@
         <v>27</v>
       </c>
       <c r="K28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L28">
         <v>27</v>
@@ -2439,13 +2523,13 @@
         <v>56</v>
       </c>
       <c r="N28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O28" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="R28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -2453,16 +2537,19 @@
       <c r="V28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D29">
         <v>40</v>
@@ -2471,7 +2558,7 @@
         <v>28</v>
       </c>
       <c r="K29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L29">
         <v>28</v>
@@ -2480,13 +2567,13 @@
         <v>57</v>
       </c>
       <c r="N29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O29" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="R29" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -2494,16 +2581,19 @@
       <c r="V29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -2512,7 +2602,7 @@
         <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L30">
         <v>28</v>
@@ -2521,13 +2611,13 @@
         <v>57</v>
       </c>
       <c r="N30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O30" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="R30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -2535,16 +2625,19 @@
       <c r="V30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -2553,7 +2646,7 @@
         <v>30</v>
       </c>
       <c r="K31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L31">
         <v>29</v>
@@ -2562,13 +2655,13 @@
         <v>58</v>
       </c>
       <c r="N31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O31" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="R31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -2576,16 +2669,19 @@
       <c r="V31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D32">
         <v>8</v>
@@ -2594,7 +2690,7 @@
         <v>31</v>
       </c>
       <c r="K32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L32">
         <v>30</v>
@@ -2603,13 +2699,13 @@
         <v>59</v>
       </c>
       <c r="N32" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O32" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R32" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -2617,16 +2713,19 @@
       <c r="V32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D33">
         <v>14</v>
@@ -2635,7 +2734,7 @@
         <v>32</v>
       </c>
       <c r="K33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L33">
         <v>30</v>
@@ -2644,13 +2743,13 @@
         <v>59</v>
       </c>
       <c r="N33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O33" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="R33" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -2658,16 +2757,19 @@
       <c r="V33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D34">
         <v>7</v>
@@ -2676,7 +2778,7 @@
         <v>33</v>
       </c>
       <c r="K34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L34">
         <v>31</v>
@@ -2685,13 +2787,13 @@
         <v>60</v>
       </c>
       <c r="N34" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O34" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="R34" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -2699,16 +2801,19 @@
       <c r="V34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D35">
         <v>15</v>
@@ -2717,7 +2822,7 @@
         <v>34</v>
       </c>
       <c r="K35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L35">
         <v>32</v>
@@ -2726,13 +2831,13 @@
         <v>61</v>
       </c>
       <c r="N35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O35" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="R35" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -2740,16 +2845,19 @@
       <c r="V35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D36">
         <v>13</v>
@@ -2758,7 +2866,7 @@
         <v>35</v>
       </c>
       <c r="K36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L36">
         <v>33</v>
@@ -2767,13 +2875,13 @@
         <v>63</v>
       </c>
       <c r="N36" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O36" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="R36" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -2781,16 +2889,19 @@
       <c r="V36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D37">
         <v>35</v>
@@ -2799,7 +2910,7 @@
         <v>36</v>
       </c>
       <c r="K37" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L37">
         <v>34</v>
@@ -2808,13 +2919,13 @@
         <v>64</v>
       </c>
       <c r="N37" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O37" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="R37" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -2822,16 +2933,19 @@
       <c r="V37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -2840,7 +2954,7 @@
         <v>37</v>
       </c>
       <c r="K38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L38">
         <v>36</v>
@@ -2849,13 +2963,13 @@
         <v>77</v>
       </c>
       <c r="N38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O38" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="R38" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -2863,16 +2977,19 @@
       <c r="V38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -2881,7 +2998,7 @@
         <v>38</v>
       </c>
       <c r="K39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L39">
         <v>37</v>
@@ -2890,13 +3007,13 @@
         <v>78</v>
       </c>
       <c r="N39" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O39" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="R39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -2904,16 +3021,19 @@
       <c r="V39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D40">
         <v>7</v>
@@ -2922,7 +3042,7 @@
         <v>39</v>
       </c>
       <c r="K40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L40">
         <v>39</v>
@@ -2931,13 +3051,13 @@
         <v>81</v>
       </c>
       <c r="N40" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O40" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="R40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U40">
         <v>0</v>
@@ -2945,16 +3065,19 @@
       <c r="V40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D41">
         <v>20</v>
@@ -2963,7 +3086,7 @@
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L41">
         <v>41</v>
@@ -2972,13 +3095,13 @@
         <v>83</v>
       </c>
       <c r="N41" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O41" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="R41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U41">
         <v>0</v>
@@ -2986,16 +3109,19 @@
       <c r="V41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D42">
         <v>129</v>
@@ -3004,7 +3130,7 @@
         <v>41</v>
       </c>
       <c r="K42" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L42">
         <v>42</v>
@@ -3013,13 +3139,13 @@
         <v>84</v>
       </c>
       <c r="N42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O42" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="R42" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -3027,16 +3153,19 @@
       <c r="V42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D43">
         <v>96</v>
@@ -3045,7 +3174,7 @@
         <v>42</v>
       </c>
       <c r="K43" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L43">
         <v>42</v>
@@ -3054,13 +3183,13 @@
         <v>84</v>
       </c>
       <c r="N43" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O43" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="R43" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -3068,16 +3197,19 @@
       <c r="V43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D44">
         <v>30</v>
@@ -3086,7 +3218,7 @@
         <v>43</v>
       </c>
       <c r="K44" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L44">
         <v>44</v>
@@ -3095,13 +3227,13 @@
         <v>87</v>
       </c>
       <c r="N44" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O44" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="R44" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U44">
         <v>0</v>
@@ -3109,16 +3241,19 @@
       <c r="V44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="W44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D45">
         <v>12</v>
@@ -3127,7 +3262,7 @@
         <v>44</v>
       </c>
       <c r="K45" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L45">
         <v>46</v>
@@ -3136,13 +3271,13 @@
         <v>90</v>
       </c>
       <c r="N45" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O45" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="R45" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U45">
         <v>0</v>
@@ -3150,16 +3285,19 @@
       <c r="V45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="W45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D46">
         <v>7</v>
@@ -3168,7 +3306,7 @@
         <v>45</v>
       </c>
       <c r="K46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L46">
         <v>49</v>
@@ -3177,13 +3315,13 @@
         <v>93</v>
       </c>
       <c r="N46" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O46" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="R46" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -3191,16 +3329,19 @@
       <c r="V46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="W46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D47">
         <v>10</v>
@@ -3209,7 +3350,7 @@
         <v>46</v>
       </c>
       <c r="K47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L47">
         <v>50</v>
@@ -3218,13 +3359,13 @@
         <v>94</v>
       </c>
       <c r="N47" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O47" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R47" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U47">
         <v>0</v>
@@ -3232,16 +3373,19 @@
       <c r="V47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="W47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -3250,7 +3394,7 @@
         <v>47</v>
       </c>
       <c r="K48" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L48">
         <v>50</v>
@@ -3259,13 +3403,13 @@
         <v>94</v>
       </c>
       <c r="N48" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O48" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="R48" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -3273,16 +3417,19 @@
       <c r="V48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="W48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D49">
         <v>25</v>
@@ -3291,7 +3438,7 @@
         <v>48</v>
       </c>
       <c r="K49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L49">
         <v>51</v>
@@ -3300,13 +3447,13 @@
         <v>95</v>
       </c>
       <c r="N49" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O49" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="R49" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U49">
         <v>0</v>
@@ -3314,16 +3461,19 @@
       <c r="V49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="W49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -3332,7 +3482,7 @@
         <v>49</v>
       </c>
       <c r="K50" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L50">
         <v>54</v>
@@ -3341,13 +3491,13 @@
         <v>99</v>
       </c>
       <c r="N50" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O50" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="R50" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -3355,16 +3505,19 @@
       <c r="V50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="W50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D51">
         <v>20</v>
@@ -3373,7 +3526,7 @@
         <v>50</v>
       </c>
       <c r="K51" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L51">
         <v>54</v>
@@ -3382,13 +3535,13 @@
         <v>99</v>
       </c>
       <c r="N51" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O51" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="R51" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U51">
         <v>0</v>
@@ -3396,16 +3549,19 @@
       <c r="V51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="W51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D52">
         <v>6</v>
@@ -3414,7 +3570,7 @@
         <v>51</v>
       </c>
       <c r="K52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L52">
         <v>55</v>
@@ -3423,13 +3579,13 @@
         <v>100</v>
       </c>
       <c r="N52" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O52" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="R52" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -3437,16 +3593,19 @@
       <c r="V52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:22">
+      <c r="W52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D53">
         <v>5</v>
@@ -3455,7 +3614,7 @@
         <v>52</v>
       </c>
       <c r="K53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L53">
         <v>55</v>
@@ -3464,13 +3623,13 @@
         <v>100</v>
       </c>
       <c r="N53" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O53" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="R53" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -3478,16 +3637,19 @@
       <c r="V53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:22">
+      <c r="W53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -3496,7 +3658,7 @@
         <v>53</v>
       </c>
       <c r="K54" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L54">
         <v>56</v>
@@ -3505,13 +3667,13 @@
         <v>101</v>
       </c>
       <c r="N54" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O54" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="R54" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U54">
         <v>0</v>
@@ -3519,16 +3681,19 @@
       <c r="V54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="W54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -3537,7 +3702,7 @@
         <v>54</v>
       </c>
       <c r="K55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L55">
         <v>58</v>
@@ -3546,13 +3711,13 @@
         <v>103</v>
       </c>
       <c r="N55" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O55" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="R55" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -3560,16 +3725,19 @@
       <c r="V55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:22">
+      <c r="W55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C56" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D56">
         <v>10</v>
@@ -3578,7 +3746,7 @@
         <v>55</v>
       </c>
       <c r="K56" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L56">
         <v>59</v>
@@ -3587,13 +3755,13 @@
         <v>104</v>
       </c>
       <c r="N56" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O56" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="R56" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -3601,16 +3769,19 @@
       <c r="V56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="W56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D57">
         <v>100</v>
@@ -3619,7 +3790,7 @@
         <v>56</v>
       </c>
       <c r="K57" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L57">
         <v>60</v>
@@ -3628,13 +3799,13 @@
         <v>105</v>
       </c>
       <c r="N57" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O57" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="R57" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -3642,16 +3813,19 @@
       <c r="V57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:22">
+      <c r="W57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -3660,7 +3834,7 @@
         <v>57</v>
       </c>
       <c r="K58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L58">
         <v>61</v>
@@ -3669,13 +3843,13 @@
         <v>106</v>
       </c>
       <c r="N58" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O58" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="R58" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -3683,16 +3857,19 @@
       <c r="V58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:22">
+      <c r="W58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D59">
         <v>15</v>
@@ -3701,7 +3878,7 @@
         <v>58</v>
       </c>
       <c r="K59" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L59">
         <v>64</v>
@@ -3710,13 +3887,13 @@
         <v>111</v>
       </c>
       <c r="N59" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O59" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="R59" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U59">
         <v>0</v>
@@ -3724,16 +3901,19 @@
       <c r="V59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:22">
+      <c r="W59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D60">
         <v>7</v>
@@ -3742,7 +3922,7 @@
         <v>59</v>
       </c>
       <c r="K60" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L60">
         <v>65</v>
@@ -3751,13 +3931,13 @@
         <v>113</v>
       </c>
       <c r="N60" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O60" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="R60" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U60">
         <v>0</v>
@@ -3765,16 +3945,19 @@
       <c r="V60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:22">
+      <c r="W60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C61" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D61">
         <v>18</v>
@@ -3783,7 +3966,7 @@
         <v>60</v>
       </c>
       <c r="K61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L61">
         <v>67</v>
@@ -3792,13 +3975,13 @@
         <v>115</v>
       </c>
       <c r="N61" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O61" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="R61" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U61">
         <v>0</v>
@@ -3806,16 +3989,19 @@
       <c r="V61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:22">
+      <c r="W61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D62">
         <v>5</v>
@@ -3824,7 +4010,7 @@
         <v>61</v>
       </c>
       <c r="K62" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L62">
         <v>67</v>
@@ -3833,13 +4019,13 @@
         <v>115</v>
       </c>
       <c r="N62" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O62" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="R62" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U62">
         <v>0</v>
@@ -3847,16 +4033,19 @@
       <c r="V62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:22">
+      <c r="W62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C63" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D63">
         <v>21</v>
@@ -3865,7 +4054,7 @@
         <v>62</v>
       </c>
       <c r="K63" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L63">
         <v>67</v>
@@ -3874,13 +4063,13 @@
         <v>115</v>
       </c>
       <c r="N63" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O63" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="R63" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="U63">
         <v>0</v>
@@ -3888,16 +4077,19 @@
       <c r="V63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:22">
+      <c r="W63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C64" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D64">
         <v>6</v>
@@ -3906,7 +4098,7 @@
         <v>63</v>
       </c>
       <c r="K64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L64">
         <v>69</v>
@@ -3915,13 +4107,13 @@
         <v>118</v>
       </c>
       <c r="N64" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O64" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="R64" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U64">
         <v>0</v>
@@ -3929,16 +4121,19 @@
       <c r="V64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:22">
+      <c r="W64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C65" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D65">
         <v>14</v>
@@ -3947,7 +4142,7 @@
         <v>64</v>
       </c>
       <c r="K65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L65">
         <v>70</v>
@@ -3956,13 +4151,13 @@
         <v>119</v>
       </c>
       <c r="N65" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O65" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="R65" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U65">
         <v>0</v>
@@ -3970,16 +4165,19 @@
       <c r="V65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:22">
+      <c r="W65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C66" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D66">
         <v>17</v>
@@ -3988,7 +4186,7 @@
         <v>65</v>
       </c>
       <c r="K66" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L66">
         <v>70</v>
@@ -3997,13 +4195,13 @@
         <v>119</v>
       </c>
       <c r="N66" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O66" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="R66" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U66">
         <v>0</v>
@@ -4011,16 +4209,19 @@
       <c r="V66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:22">
+      <c r="W66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D67">
         <v>22</v>
@@ -4029,7 +4230,7 @@
         <v>66</v>
       </c>
       <c r="K67" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L67">
         <v>70</v>
@@ -4038,13 +4239,13 @@
         <v>119</v>
       </c>
       <c r="N67" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O67" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="R67" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U67">
         <v>0</v>
@@ -4052,16 +4253,19 @@
       <c r="V67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:22">
+      <c r="W67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C68" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D68">
         <v>120</v>
@@ -4070,7 +4274,7 @@
         <v>67</v>
       </c>
       <c r="K68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L68">
         <v>70</v>
@@ -4079,13 +4283,13 @@
         <v>119</v>
       </c>
       <c r="N68" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O68" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="R68" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U68">
         <v>0</v>
@@ -4093,16 +4297,19 @@
       <c r="V68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:22">
+      <c r="W68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D69">
         <v>75</v>
@@ -4111,7 +4318,7 @@
         <v>68</v>
       </c>
       <c r="K69" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L69">
         <v>70</v>
@@ -4120,13 +4327,13 @@
         <v>119</v>
       </c>
       <c r="N69" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O69" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="R69" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U69">
         <v>0</v>
@@ -4134,16 +4341,19 @@
       <c r="V69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:22">
+      <c r="W69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C70" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -4152,7 +4362,7 @@
         <v>69</v>
       </c>
       <c r="K70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L70">
         <v>70</v>
@@ -4161,13 +4371,13 @@
         <v>119</v>
       </c>
       <c r="N70" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O70" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="R70" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U70">
         <v>0</v>
@@ -4175,16 +4385,19 @@
       <c r="V70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:22">
+      <c r="W70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C71" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -4193,7 +4406,7 @@
         <v>70</v>
       </c>
       <c r="K71" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L71">
         <v>70</v>
@@ -4202,18 +4415,21 @@
         <v>119</v>
       </c>
       <c r="N71" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O71" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="R71" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U71">
         <v>0</v>
       </c>
       <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p27.xlsx
+++ b/files/separadas/repeat_p27.xlsx
@@ -2972,13 +2972,13 @@
         <v>282</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="39" spans="1:23">

--- a/files/separadas/repeat_p27.xlsx
+++ b/files/separadas/repeat_p27.xlsx
@@ -3236,13 +3236,13 @@
         <v>282</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:23">

--- a/files/separadas/repeat_p27.xlsx
+++ b/files/separadas/repeat_p27.xlsx
@@ -3236,13 +3236,13 @@
         <v>282</v>
       </c>
       <c r="U44">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:23">

--- a/files/separadas/repeat_p27.xlsx
+++ b/files/separadas/repeat_p27.xlsx
@@ -1670,13 +1670,13 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19">
@@ -1737,13 +1737,13 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20">
